--- a/excel/Indicativo - Futuro Semplice.xlsx
+++ b/excel/Indicativo - Futuro Semplice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13620"/>
+    <workbookView windowWidth="30720" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="189">
   <si>
     <t>类别名称</t>
   </si>
@@ -73,6 +73,9 @@
     <t>loro</t>
   </si>
   <si>
+    <t>verranno</t>
+  </si>
+  <si>
     <t>essere</t>
   </si>
   <si>
@@ -161,6 +164,9 @@
   </si>
   <si>
     <t>finiremo</t>
+  </si>
+  <si>
+    <t>finirete</t>
   </si>
   <si>
     <t>finiranno</t>
@@ -1559,7 +1565,7 @@
   <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E145"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1684,7 +1690,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
@@ -1695,16 +1701,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1712,16 +1718,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1729,16 +1735,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1746,16 +1752,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1763,16 +1769,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1780,16 +1786,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1797,16 +1803,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1814,16 +1820,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1831,16 +1837,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1848,16 +1854,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1865,16 +1871,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1882,16 +1888,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1899,16 +1905,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1916,16 +1922,16 @@
         <v>5</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1933,16 +1939,16 @@
         <v>5</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1950,16 +1956,16 @@
         <v>5</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1967,16 +1973,16 @@
         <v>5</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1984,16 +1990,16 @@
         <v>5</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2001,16 +2007,16 @@
         <v>5</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2018,16 +2024,16 @@
         <v>5</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2035,16 +2041,16 @@
         <v>5</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2052,16 +2058,16 @@
         <v>5</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2069,16 +2075,16 @@
         <v>5</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2086,16 +2092,16 @@
         <v>5</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2103,16 +2109,16 @@
         <v>5</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2120,16 +2126,16 @@
         <v>5</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2137,16 +2143,16 @@
         <v>5</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2154,16 +2160,16 @@
         <v>5</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2171,16 +2177,16 @@
         <v>5</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2188,16 +2194,16 @@
         <v>5</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2205,16 +2211,16 @@
         <v>5</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2222,16 +2228,16 @@
         <v>5</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2239,16 +2245,16 @@
         <v>5</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2256,16 +2262,16 @@
         <v>5</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2273,16 +2279,16 @@
         <v>5</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2290,16 +2296,16 @@
         <v>5</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2307,16 +2313,16 @@
         <v>5</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2324,16 +2330,16 @@
         <v>5</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2341,16 +2347,16 @@
         <v>5</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2358,16 +2364,16 @@
         <v>5</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2375,16 +2381,16 @@
         <v>5</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2392,16 +2398,16 @@
         <v>5</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2409,16 +2415,16 @@
         <v>5</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2426,16 +2432,16 @@
         <v>5</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2443,16 +2449,16 @@
         <v>5</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2460,16 +2466,16 @@
         <v>5</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2477,16 +2483,16 @@
         <v>5</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2494,16 +2500,16 @@
         <v>5</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2511,13 +2517,13 @@
         <v>5</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E56" s="2"/>
     </row>
@@ -2526,13 +2532,13 @@
         <v>5</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E57" s="2"/>
     </row>
@@ -2541,13 +2547,13 @@
         <v>5</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E58" s="2"/>
     </row>
@@ -2556,13 +2562,13 @@
         <v>5</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2"/>
     </row>
@@ -2571,13 +2577,13 @@
         <v>5</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2"/>
     </row>
@@ -2586,13 +2592,13 @@
         <v>5</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2"/>
     </row>
@@ -2601,13 +2607,13 @@
         <v>5</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2"/>
     </row>
@@ -2616,13 +2622,13 @@
         <v>5</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2"/>
     </row>
@@ -2631,13 +2637,13 @@
         <v>5</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2"/>
     </row>
@@ -2646,13 +2652,13 @@
         <v>5</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2"/>
     </row>
@@ -2661,13 +2667,13 @@
         <v>5</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2"/>
     </row>
@@ -2676,13 +2682,13 @@
         <v>5</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2"/>
     </row>
@@ -2691,13 +2697,13 @@
         <v>5</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E68" s="2"/>
     </row>
@@ -2706,13 +2712,13 @@
         <v>5</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2"/>
     </row>
@@ -2721,13 +2727,13 @@
         <v>5</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E70" s="2"/>
     </row>
@@ -2736,13 +2742,13 @@
         <v>5</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2"/>
     </row>
@@ -2751,13 +2757,13 @@
         <v>5</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E72" s="2"/>
     </row>
@@ -2766,13 +2772,13 @@
         <v>5</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2"/>
     </row>
@@ -2781,13 +2787,13 @@
         <v>5</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2"/>
     </row>
@@ -2796,13 +2802,13 @@
         <v>5</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E75" s="2"/>
     </row>
@@ -2811,13 +2817,13 @@
         <v>5</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2"/>
     </row>
@@ -2826,13 +2832,13 @@
         <v>5</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E77" s="2"/>
     </row>
@@ -2841,13 +2847,13 @@
         <v>5</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2"/>
     </row>
@@ -2856,13 +2862,13 @@
         <v>5</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E79" s="2"/>
     </row>
@@ -2871,13 +2877,13 @@
         <v>5</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E80" s="2"/>
     </row>
@@ -2886,13 +2892,13 @@
         <v>5</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2"/>
     </row>
@@ -2901,13 +2907,13 @@
         <v>5</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2"/>
     </row>
@@ -2916,13 +2922,13 @@
         <v>5</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E83" s="2"/>
     </row>
@@ -2931,13 +2937,13 @@
         <v>5</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E84" s="2"/>
     </row>
@@ -2946,13 +2952,13 @@
         <v>5</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E85" s="2"/>
     </row>
@@ -2961,13 +2967,13 @@
         <v>5</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E86" s="2"/>
     </row>
@@ -2976,13 +2982,13 @@
         <v>5</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E87" s="2"/>
     </row>
@@ -2991,13 +2997,13 @@
         <v>5</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2"/>
     </row>
@@ -3006,13 +3012,13 @@
         <v>5</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E89" s="2"/>
     </row>
@@ -3021,13 +3027,13 @@
         <v>5</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E90" s="2"/>
     </row>
@@ -3036,13 +3042,13 @@
         <v>5</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E91" s="2"/>
     </row>
@@ -3051,13 +3057,13 @@
         <v>5</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E92" s="2"/>
     </row>
@@ -3066,13 +3072,13 @@
         <v>5</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E93" s="2"/>
     </row>
@@ -3081,13 +3087,13 @@
         <v>5</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E94" s="2"/>
     </row>
@@ -3096,13 +3102,13 @@
         <v>5</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E95" s="2"/>
     </row>
@@ -3111,13 +3117,13 @@
         <v>5</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E96" s="2"/>
     </row>
@@ -3126,13 +3132,13 @@
         <v>5</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E97" s="2"/>
     </row>
@@ -3141,13 +3147,13 @@
         <v>5</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E98" s="2"/>
     </row>
@@ -3156,13 +3162,13 @@
         <v>5</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E99" s="2"/>
     </row>
@@ -3171,13 +3177,13 @@
         <v>5</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E100" s="2"/>
     </row>
@@ -3186,13 +3192,13 @@
         <v>5</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E101" s="2"/>
     </row>
@@ -3201,13 +3207,13 @@
         <v>5</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E102" s="2"/>
     </row>
@@ -3216,13 +3222,13 @@
         <v>5</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E103" s="2"/>
     </row>
@@ -3231,13 +3237,13 @@
         <v>5</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E104" s="2"/>
     </row>
@@ -3246,13 +3252,13 @@
         <v>5</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E105" s="2"/>
     </row>
@@ -3261,13 +3267,13 @@
         <v>5</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E106" s="2"/>
     </row>
@@ -3276,13 +3282,13 @@
         <v>5</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E107" s="2"/>
     </row>
@@ -3291,13 +3297,13 @@
         <v>5</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E108" s="2"/>
     </row>
@@ -3306,13 +3312,13 @@
         <v>5</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E109" s="2"/>
     </row>
@@ -3321,13 +3327,13 @@
         <v>5</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E110" s="2"/>
     </row>
@@ -3336,13 +3342,13 @@
         <v>5</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E111" s="2"/>
     </row>
@@ -3351,13 +3357,13 @@
         <v>5</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E112" s="2"/>
     </row>
@@ -3366,13 +3372,13 @@
         <v>5</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E113" s="2"/>
     </row>
@@ -3381,13 +3387,13 @@
         <v>5</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E114" s="2"/>
     </row>
@@ -3396,13 +3402,13 @@
         <v>5</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E115" s="2"/>
     </row>
@@ -3411,13 +3417,13 @@
         <v>5</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E116" s="2"/>
     </row>
@@ -3426,13 +3432,13 @@
         <v>5</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E117" s="2"/>
     </row>
@@ -3441,13 +3447,13 @@
         <v>5</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E118" s="2"/>
     </row>
@@ -3456,13 +3462,13 @@
         <v>5</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E119" s="2"/>
     </row>
@@ -3471,13 +3477,13 @@
         <v>5</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E120" s="2"/>
     </row>
@@ -3486,13 +3492,13 @@
         <v>5</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E121" s="2"/>
     </row>
@@ -3501,13 +3507,13 @@
         <v>5</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E122" s="2"/>
     </row>
@@ -3516,13 +3522,13 @@
         <v>5</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E123" s="2"/>
     </row>
@@ -3531,13 +3537,13 @@
         <v>5</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E124" s="2"/>
     </row>
@@ -3546,13 +3552,13 @@
         <v>5</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E125" s="2"/>
     </row>
@@ -3561,13 +3567,13 @@
         <v>5</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E126" s="2"/>
     </row>
@@ -3576,13 +3582,13 @@
         <v>5</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E127" s="2"/>
     </row>
@@ -3591,13 +3597,13 @@
         <v>5</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E128" s="2"/>
     </row>
@@ -3606,13 +3612,13 @@
         <v>5</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E129" s="2"/>
     </row>
@@ -3621,13 +3627,13 @@
         <v>5</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E130" s="2"/>
     </row>
@@ -3636,13 +3642,13 @@
         <v>5</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E131" s="2"/>
     </row>
@@ -3651,13 +3657,13 @@
         <v>5</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E132" s="2"/>
     </row>
@@ -3666,13 +3672,13 @@
         <v>5</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E133" s="2"/>
     </row>
@@ -3681,13 +3687,13 @@
         <v>5</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E134" s="2"/>
     </row>
@@ -3696,13 +3702,13 @@
         <v>5</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E135" s="2"/>
     </row>
@@ -3711,13 +3717,13 @@
         <v>5</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E136" s="2"/>
     </row>
@@ -3726,13 +3732,13 @@
         <v>5</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E137" s="2"/>
     </row>
@@ -3741,13 +3747,13 @@
         <v>5</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E138" s="2"/>
     </row>
@@ -3756,13 +3762,13 @@
         <v>5</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E139" s="2"/>
     </row>
@@ -3771,13 +3777,13 @@
         <v>5</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E140" s="2"/>
     </row>
@@ -3786,13 +3792,13 @@
         <v>5</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E141" s="2"/>
     </row>
@@ -3801,13 +3807,13 @@
         <v>5</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E142" s="2"/>
     </row>
@@ -3816,13 +3822,13 @@
         <v>5</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E143" s="2"/>
     </row>
@@ -3831,13 +3837,13 @@
         <v>5</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E144" s="2"/>
     </row>
@@ -3846,13 +3852,13 @@
         <v>5</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E145" s="2"/>
     </row>
